--- a/output/ejecucion_2/results/base0/base0_ci_rf_s.xlsx
+++ b/output/ejecucion_2/results/base0/base0_ci_rf_s.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
+    <t>_tejgct_r09gstcp</t>
+  </si>
+  <si>
+    <t>_tejgkft_redr</t>
+  </si>
+  <si>
+    <t>_tejgge_r09ct06acanf</t>
+  </si>
+  <si>
+    <t>_devppimtotfun_f1trans</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct05prots</t>
+  </si>
+  <si>
     <t>_tejgfun_f5ct06amb</t>
   </si>
   <si>
+    <t>devppimfun_f5r07ct05salud</t>
+  </si>
+  <si>
+    <t>tejgfun_f5ct06viv</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f2prots</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct06opseg</t>
+  </si>
+  <si>
     <t>_tejgfun_f5r18ct05pgrco</t>
   </si>
   <si>
-    <t>_tejgfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05prots</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2cydep</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06opseg</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05opseg</t>
-  </si>
-  <si>
     <t>_tejgtotfun_f2opsegpc</t>
   </si>
   <si>
-    <t>_tejgct_r18gstcr</t>
-  </si>
-  <si>
-    <t>empinc_4</t>
+    <t>pimgfun_f5r18ct05trans</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r08ct05prots</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5ct05sanpc</t>
+  </si>
+  <si>
+    <t>devppimtotfun_f5r07salud</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f1ct05prots</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r08pgrco</t>
+  </si>
+  <si>
+    <t>tejgfun_f5ct05trans</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r07ct05agro</t>
   </si>
   <si>
     <t>_devppimfun_f1ct05trans</t>
   </si>
   <si>
+    <t>tejgfun_f5r08ct05ambpc</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r18prots</t>
+  </si>
+  <si>
+    <t>tejgfun_f2ct05ambpc</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f5r18opseg</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5r18ct06opseg</t>
+  </si>
+  <si>
+    <t>dfgpimpiatotfun_f1prots</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2opseg</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5amb</t>
+  </si>
+  <si>
+    <t>devppimfun_f5ct06viv</t>
+  </si>
+  <si>
+    <t>_tejgfun_f2ct05pgrco</t>
+  </si>
+  <si>
+    <t>tejgfun_f2ct05prots</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct05prots</t>
+  </si>
+  <si>
+    <t>pimgfun_f1ct06san</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r18ct05transpc</t>
+  </si>
+  <si>
+    <t>tejgct_r07gstcrpc</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r07ct05cydep</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r18ct05agro</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5r07ct05trans</t>
+  </si>
+  <si>
+    <t>devppimtotfun_f5r07edu</t>
+  </si>
+  <si>
+    <t>tejgfun_f5ct05prots</t>
+  </si>
+  <si>
+    <t>devppimtotfun_f5turi</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2protspc</t>
+  </si>
+  <si>
     <t>_tejgtotfun_f5r18amb</t>
   </si>
   <si>
-    <t>_tejgge_r18ct05biser</t>
-  </si>
-  <si>
-    <t>_devppimtotfun_f1trans</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5amb</t>
-  </si>
-  <si>
-    <t>devppimtotfun_f5r18opseg</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5trans</t>
-  </si>
-  <si>
-    <t>per_012</t>
-  </si>
-  <si>
-    <t>_tejgkft_redr</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05pgrco</t>
-  </si>
-  <si>
-    <t>compu_muni_5</t>
-  </si>
-  <si>
-    <t>_tejgct_r09gstcp</t>
-  </si>
-  <si>
-    <t>_tejgct_r09gstcr</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagtotfun_f5r07energ</t>
-  </si>
-  <si>
-    <t>_devppimrb_reod</t>
-  </si>
-  <si>
-    <t>devppimfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>pimgfun_f2ct06pgrco</t>
-  </si>
-  <si>
-    <t>_devppimft_reod</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05pgrcopc</t>
-  </si>
-  <si>
-    <t>tejgge_r00ct05biser</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r07ct05cydep</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r08pgrco</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r07ct05turi</t>
-  </si>
-  <si>
-    <t>_tejgge_r09ct05biser</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r18pgrco</t>
-  </si>
-  <si>
-    <t>_tejgct_r09gstcrpc</t>
-  </si>
-  <si>
-    <t>_tejgft_rdetpc</t>
-  </si>
-  <si>
-    <t>_devppimfun_f5r18ct05salud</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05opsegpc</t>
+    <t>_devppimfun_f5r07ct05cydep</t>
+  </si>
+  <si>
+    <t>_tejgge_r00ct05biser</t>
+  </si>
+  <si>
+    <t>_devppimtotfun_f5viv</t>
   </si>
   <si>
     <t>_tejgge_r08ct05pobso</t>
-  </si>
-  <si>
-    <t>_devppimfun_f5ct05salud</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5ambpc</t>
-  </si>
-  <si>
-    <t>_tejgge_r07ct05dotra</t>
-  </si>
-  <si>
-    <t>tejgge_r07ct05otgstpc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct06opseg</t>
-  </si>
-  <si>
-    <t>piagtotfun_f5salud</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5prots</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f5r08ct05opseg</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r18ct05agro</t>
-  </si>
-  <si>
-    <t>_devppimct_r13gstcr</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.04890387852303944</v>
+        <v>0.0222877008616479</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.0235403495070995</v>
+        <v>0.01876119338234825</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01075010163630614</v>
+        <v>0.01270238711430756</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.01036572393560001</v>
+        <v>0.008379448440144543</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.007104417648963504</v>
+        <v>0.007266205920448248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.00648032939737169</v>
+        <v>0.006509051985726964</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.005952423644830818</v>
+        <v>0.0057942148843925</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.005188023838873089</v>
+        <v>0.005213637077382253</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.005184849561797666</v>
+        <v>0.004362137750170723</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.004730906501343675</v>
+        <v>0.003752831168538787</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.004594914583726581</v>
+        <v>0.003543889931279804</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.004314215262847029</v>
+        <v>0.002667236308274454</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.004083071703763175</v>
+        <v>0.002618618194689319</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.003598774592899315</v>
+        <v>0.002402956011004317</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.003575195654838516</v>
+        <v>0.002328877006073631</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.003061547199460385</v>
+        <v>0.002327153653263374</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.002991355528891266</v>
+        <v>0.002320550390594772</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.002921968697791789</v>
+        <v>0.002167362117065952</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.002847660221735627</v>
+        <v>0.002118668341594504</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.002807592609381518</v>
+        <v>0.0020550167627146</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.00269434897093512</v>
+        <v>0.002020945930915277</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.002553151134381753</v>
+        <v>0.002011812909351638</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.002393601048290097</v>
+        <v>0.001939748180054954</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.002053949349584095</v>
+        <v>0.001865224340092256</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.001993076671076096</v>
+        <v>0.001783193650746896</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.001993071913405893</v>
+        <v>0.001696893484526554</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.001896302303626686</v>
+        <v>0.001647335556545604</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.001891293541456924</v>
+        <v>0.001623508976675453</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.001778277155416433</v>
+        <v>0.001610369828400165</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.001759671187010612</v>
+        <v>0.001606209415203525</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.001741253003717326</v>
+        <v>0.001603637616308873</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.001665642379925675</v>
+        <v>0.00160282475040108</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.00165592352745959</v>
+        <v>0.001575118861645958</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.001600256111927068</v>
+        <v>0.001522255742288848</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.001501034560734932</v>
+        <v>0.001516097295823236</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.001364185909986559</v>
+        <v>0.001507765009685699</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.001350987012201074</v>
+        <v>0.001450216865727935</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.001335472395060638</v>
+        <v>0.001403685900253843</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.001258421609205789</v>
+        <v>0.001353879120617375</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.001214664522557089</v>
+        <v>0.001344243803332496</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.00120109585275341</v>
+        <v>0.001343546795418223</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.001162143738772575</v>
+        <v>0.001342745141028111</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.001129621604537666</v>
+        <v>0.001332322578335413</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.00112686968443611</v>
+        <v>0.001316269411181294</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.001101843922974178</v>
+        <v>0.001299328638028498</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.001094053620478501</v>
+        <v>0.001289593658318534</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.001091502889726102</v>
+        <v>0.001224440924213341</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.001088859898485432</v>
+        <v>0.001219903169780348</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.00107061033196442</v>
+        <v>0.00120469137047468</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.001058871121699289</v>
+        <v>0.001202337329518565</v>
       </c>
     </row>
   </sheetData>
